--- a/日経社説ー春秋/「プレ金」から働き方改革へ.xlsx
+++ b/日経社説ー春秋/「プレ金」から働き方改革へ.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywu\Desktop\translation\日経社説ー春秋\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,114 +19,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>切り上げる</t>
-  </si>
-  <si>
-    <t>喚起</t>
-  </si>
-  <si>
-    <t>冷ややか</t>
-  </si>
-  <si>
-    <t>先食い</t>
-  </si>
-  <si>
-    <t>駆け込み</t>
-  </si>
-  <si>
-    <t>簡素化</t>
-  </si>
-  <si>
-    <t>契機</t>
-  </si>
-  <si>
-    <t>仕掛け</t>
-  </si>
-  <si>
-    <t>時短</t>
-  </si>
-  <si>
-    <t>早帰り</t>
-  </si>
-  <si>
-    <t>息の長い</t>
-  </si>
-  <si>
-    <t>適当なところで区切りを付けて終わりにする。霧をつける。一段落つける。</t>
-  </si>
-  <si>
-    <t>かんき</t>
-  </si>
-  <si>
-    <t>呼びかけて、注意・自覚・良心などを呼び起こすこと。</t>
-  </si>
-  <si>
-    <t>ひややか</t>
-  </si>
-  <si>
-    <t>取り澄ました様。冷静なさま。</t>
-  </si>
-  <si>
-    <t>さきぐい</t>
-  </si>
-  <si>
-    <t>まだその時期ではないのに、手をつけること。</t>
-  </si>
-  <si>
-    <t>かけこみ</t>
-  </si>
-  <si>
-    <t>期限間際に急いですること。</t>
-  </si>
-  <si>
-    <t>かんそか</t>
-  </si>
-  <si>
-    <t>無駄を省き簡単にすること。</t>
-  </si>
-  <si>
-    <t>けいき</t>
-  </si>
-  <si>
-    <t>物事が始まったり、変化が生じたりする直接の要素や原因。</t>
-  </si>
-  <si>
-    <t>しかけ</t>
-  </si>
-  <si>
-    <t>やり方。</t>
-  </si>
-  <si>
-    <t>じたん</t>
-  </si>
-  <si>
-    <t>「（労働）時間短縮」の略。</t>
-  </si>
-  <si>
-    <t>はやがえり</t>
-  </si>
-  <si>
-    <t>定刻よりも早く帰ること。</t>
-  </si>
-  <si>
-    <t>いきのながい</t>
-  </si>
-  <si>
-    <t>長期間に渡り廃れることなく任期や勢いを持続し続けているさまなどを意味する表現。息が長いさま。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>月末の金曜日は仕事を早めに切り上げようという「プレミアム不フライデー」が、昨日始まった。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時給制で働く人は収入減になりかねないという懸念も聞かれる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ここは、日本の経済</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・社会に欠かせない働き方改革のきっかけとして、とらえたい。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週末に会議を入れない、駆け込みで命令をしない、などと決めれば、仕事の簡素化や標準化につながる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特にホワイトカラー職場では無駄な仕事を点検する契機になる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今では普通になった週休二日制も当初はゆとりのある一部企業が先行し、隔週から毎週へと導入も段階的だった。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持する人が多ければいずれ広がるだろう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>また、今の消費者はものの購入より特別な体験に支出する傾向が強い。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由時間を増やし消費を掘り起こす発想には一定の説得力がある。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サービス業などには新しい仕掛けを試したり、新規顧客を呼び込んだりする好機になる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>より大事なのは、政府や企業がこの企画だけで良しとするのではなく、将来不安の解消や生産性向上による賃上げ、休暇を取りやすい職場づくりを進めることだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毎月一回、数時間だけの早帰りに、どれだけの経済効果があるのか、冷ややか見方はあろう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消費の喚起と働き方改革の一石二鳥を狙って、政府と経済界が主導した計画だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「金曜日の消費が増えても土日分の先食いに終わるのでは」「前日の残業につながらないか」といった疑問の声もある。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -155,11 +138,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,7 +241,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,146 +418,100 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="94.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="27">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="9" spans="1:1" ht="27">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="14" spans="1:1" ht="27">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>